--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H2">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N2">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O2">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P2">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q2">
-        <v>1.531269964198333</v>
+        <v>4.853892490936667</v>
       </c>
       <c r="R2">
-        <v>13.781429677785</v>
+        <v>43.68503241843</v>
       </c>
       <c r="S2">
-        <v>0.002805127863608764</v>
+        <v>0.007156696709311744</v>
       </c>
       <c r="T2">
-        <v>0.002805127863608765</v>
+        <v>0.007156696709311745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H3">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.864858</v>
       </c>
       <c r="O3">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P3">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q3">
-        <v>62.47975557668779</v>
+        <v>83.60467383454333</v>
       </c>
       <c r="R3">
-        <v>562.31780019019</v>
+        <v>752.44206451089</v>
       </c>
       <c r="S3">
-        <v>0.1144564364072718</v>
+        <v>0.1232687570299473</v>
       </c>
       <c r="T3">
-        <v>0.1144564364072719</v>
+        <v>0.1232687570299474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H4">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N4">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O4">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P4">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q4">
-        <v>14.910344157885</v>
+        <v>22.318994566115</v>
       </c>
       <c r="R4">
-        <v>134.193097420965</v>
+        <v>200.870951095035</v>
       </c>
       <c r="S4">
-        <v>0.02731420509196513</v>
+        <v>0.03290766642745282</v>
       </c>
       <c r="T4">
-        <v>0.02731420509196513</v>
+        <v>0.03290766642745283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>223.189369</v>
       </c>
       <c r="I5">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J5">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N5">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O5">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P5">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q5">
-        <v>7.211174115933666</v>
+        <v>17.08256711979711</v>
       </c>
       <c r="R5">
-        <v>64.90056704340299</v>
+        <v>153.743104078174</v>
       </c>
       <c r="S5">
-        <v>0.01321012356729007</v>
+        <v>0.02518695091024919</v>
       </c>
       <c r="T5">
-        <v>0.01321012356729007</v>
+        <v>0.0251869509102492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>11.864858</v>
       </c>
       <c r="O6">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P6">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q6">
         <v>294.2344633660669</v>
@@ -821,10 +821,10 @@
         <v>2648.110170294602</v>
       </c>
       <c r="S6">
-        <v>0.539007040508517</v>
+        <v>0.4338264227462703</v>
       </c>
       <c r="T6">
-        <v>0.539007040508517</v>
+        <v>0.4338264227462705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N7">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O7">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P7">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q7">
-        <v>70.21693781298301</v>
+        <v>78.54844816484034</v>
       </c>
       <c r="R7">
-        <v>631.9524403168471</v>
+        <v>706.9360334835631</v>
       </c>
       <c r="S7">
-        <v>0.1286301523321532</v>
+        <v>0.1158137353788769</v>
       </c>
       <c r="T7">
-        <v>0.1286301523321532</v>
+        <v>0.1158137353788769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H8">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I8">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J8">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N8">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O8">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P8">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q8">
-        <v>0.2623062226913333</v>
+        <v>0.9309844770748891</v>
       </c>
       <c r="R8">
-        <v>2.360756004221999</v>
+        <v>8.378860293674002</v>
       </c>
       <c r="S8">
-        <v>0.0004805178128434326</v>
+        <v>0.001372666072835998</v>
       </c>
       <c r="T8">
-        <v>0.0004805178128434326</v>
+        <v>0.001372666072835998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H9">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I9">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J9">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>11.864858</v>
       </c>
       <c r="O9">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P9">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q9">
-        <v>10.70276898468311</v>
+        <v>16.03551246678911</v>
       </c>
       <c r="R9">
-        <v>96.32492086214801</v>
+        <v>144.319612201102</v>
       </c>
       <c r="S9">
-        <v>0.01960636347518254</v>
+        <v>0.02364314815737736</v>
       </c>
       <c r="T9">
-        <v>0.01960636347518254</v>
+        <v>0.02364314815737737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H10">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N10">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O10">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P10">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q10">
-        <v>2.554138817142</v>
+        <v>4.280819470923666</v>
       </c>
       <c r="R10">
-        <v>22.987249354278</v>
+        <v>38.527375238313</v>
       </c>
       <c r="S10">
-        <v>0.004678917585404797</v>
+        <v>0.006311743961763159</v>
       </c>
       <c r="T10">
-        <v>0.004678917585404797</v>
+        <v>0.006311743961763159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H11">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I11">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J11">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09692899999999999</v>
+        <v>0.2296153333333334</v>
       </c>
       <c r="N11">
-        <v>0.290787</v>
+        <v>0.6888460000000001</v>
       </c>
       <c r="O11">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="P11">
-        <v>0.01940247578118473</v>
+        <v>0.04381656765025366</v>
       </c>
       <c r="Q11">
-        <v>1.58671997568</v>
+        <v>6.850303825060223</v>
       </c>
       <c r="R11">
-        <v>14.28047978112</v>
+        <v>61.652734425542</v>
       </c>
       <c r="S11">
-        <v>0.002906706537442467</v>
+        <v>0.01010025395785673</v>
       </c>
       <c r="T11">
-        <v>0.002906706537442467</v>
+        <v>0.01010025395785673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H12">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I12">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J12">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>11.864858</v>
       </c>
       <c r="O12">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638542</v>
       </c>
       <c r="P12">
-        <v>0.7916709481242146</v>
+        <v>0.7547076606638543</v>
       </c>
       <c r="Q12">
-        <v>64.74225875712001</v>
+        <v>117.9913683772518</v>
       </c>
       <c r="R12">
-        <v>582.6803288140801</v>
+        <v>1061.922315395266</v>
       </c>
       <c r="S12">
-        <v>0.1186011077332431</v>
+        <v>0.1739693327302592</v>
       </c>
       <c r="T12">
-        <v>0.1186011077332431</v>
+        <v>0.1739693327302592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H13">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I13">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J13">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9438210000000001</v>
+        <v>1.055809</v>
       </c>
       <c r="N13">
-        <v>2.831463</v>
+        <v>3.167427</v>
       </c>
       <c r="O13">
-        <v>0.1889265760946008</v>
+        <v>0.201475771685892</v>
       </c>
       <c r="P13">
-        <v>0.1889265760946008</v>
+        <v>0.2014757716858921</v>
       </c>
       <c r="Q13">
-        <v>15.45027426432001</v>
+        <v>31.49882164329767</v>
       </c>
       <c r="R13">
-        <v>139.05246837888</v>
+        <v>283.489394789679</v>
       </c>
       <c r="S13">
-        <v>0.02830330108507761</v>
+        <v>0.04644262591779915</v>
       </c>
       <c r="T13">
-        <v>0.02830330108507761</v>
+        <v>0.04644262591779916</v>
       </c>
     </row>
   </sheetData>
